--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl4-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl4-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,19 +525,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>459.852285</v>
+        <v>0.026619</v>
       </c>
       <c r="H2">
-        <v>1379.556855</v>
+        <v>0.079857</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>4.687688666666667</v>
+        <v>0.016376</v>
       </c>
       <c r="N2">
-        <v>14.063066</v>
+        <v>0.049128</v>
       </c>
       <c r="O2">
-        <v>0.9929463927259303</v>
+        <v>0.4917717717717718</v>
       </c>
       <c r="P2">
-        <v>0.9929463927259304</v>
+        <v>0.4917717717717718</v>
       </c>
       <c r="Q2">
-        <v>2155.64434473527</v>
+        <v>0.000435912744</v>
       </c>
       <c r="R2">
-        <v>19400.79910261743</v>
+        <v>0.003923214695999999</v>
       </c>
       <c r="S2">
-        <v>0.9929463927259303</v>
+        <v>0.4917717717717718</v>
       </c>
       <c r="T2">
-        <v>0.9929463927259304</v>
+        <v>0.4917717717717718</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,19 +587,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>459.852285</v>
+        <v>0.026619</v>
       </c>
       <c r="H3">
-        <v>1379.556855</v>
+        <v>0.079857</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,90 +614,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.016376</v>
+        <v>0.016924</v>
       </c>
       <c r="N3">
-        <v>0.049128</v>
+        <v>0.050772</v>
       </c>
       <c r="O3">
-        <v>0.003468764946551448</v>
+        <v>0.5082282282282282</v>
       </c>
       <c r="P3">
-        <v>0.003468764946551449</v>
+        <v>0.5082282282282282</v>
       </c>
       <c r="Q3">
-        <v>7.530541019159999</v>
+        <v>0.000450499956</v>
       </c>
       <c r="R3">
-        <v>67.77486917244001</v>
+        <v>0.004054499604</v>
       </c>
       <c r="S3">
-        <v>0.003468764946551448</v>
+        <v>0.5082282282282282</v>
       </c>
       <c r="T3">
-        <v>0.003468764946551449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G4">
-        <v>459.852285</v>
-      </c>
-      <c r="H4">
-        <v>1379.556855</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.016924</v>
-      </c>
-      <c r="N4">
-        <v>0.050772</v>
-      </c>
-      <c r="O4">
-        <v>0.003584842327518119</v>
-      </c>
-      <c r="P4">
-        <v>0.00358484232751812</v>
-      </c>
-      <c r="Q4">
-        <v>7.782540071340001</v>
-      </c>
-      <c r="R4">
-        <v>70.04286064206001</v>
-      </c>
-      <c r="S4">
-        <v>0.003584842327518119</v>
-      </c>
-      <c r="T4">
-        <v>0.00358484232751812</v>
+        <v>0.5082282282282282</v>
       </c>
     </row>
   </sheetData>
